--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.77057966666666</v>
+        <v>13.11484166666667</v>
       </c>
       <c r="N2">
-        <v>71.31173899999999</v>
+        <v>39.344525</v>
       </c>
       <c r="O2">
-        <v>0.3626243450559418</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="P2">
-        <v>0.3626243450559417</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="Q2">
-        <v>1968.92872967993</v>
+        <v>1279.70918291917</v>
       </c>
       <c r="R2">
-        <v>17720.35856711937</v>
+        <v>11517.38264627253</v>
       </c>
       <c r="S2">
-        <v>0.1148589775025267</v>
+        <v>0.08438498896658761</v>
       </c>
       <c r="T2">
-        <v>0.1148589775025267</v>
+        <v>0.08438498896658762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H3">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>88.399283</v>
       </c>
       <c r="O3">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="P3">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="Q3">
-        <v>2440.718602890986</v>
+        <v>2875.250729766605</v>
       </c>
       <c r="R3">
-        <v>21966.46742601888</v>
+        <v>25877.25656789945</v>
       </c>
       <c r="S3">
-        <v>0.1423812039885396</v>
+        <v>0.1895962022825096</v>
       </c>
       <c r="T3">
-        <v>0.1423812039885396</v>
+        <v>0.1895962022825096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H4">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>36.94356000000001</v>
       </c>
       <c r="O4">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="P4">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="Q4">
-        <v>1020.01770929544</v>
+        <v>1201.61605666164</v>
       </c>
       <c r="R4">
-        <v>9180.15938365896</v>
+        <v>10814.54450995476</v>
       </c>
       <c r="S4">
-        <v>0.05950352054804397</v>
+        <v>0.0792354693057412</v>
       </c>
       <c r="T4">
-        <v>0.05950352054804397</v>
+        <v>0.07923546930574123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J5">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.77057966666666</v>
+        <v>13.11484166666667</v>
       </c>
       <c r="N5">
-        <v>71.31173899999999</v>
+        <v>39.344525</v>
       </c>
       <c r="O5">
-        <v>0.3626243450559418</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="P5">
-        <v>0.3626243450559417</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="Q5">
-        <v>3633.368306278486</v>
+        <v>2004.622971830509</v>
       </c>
       <c r="R5">
-        <v>32700.31475650637</v>
+        <v>18041.60674647458</v>
       </c>
       <c r="S5">
-        <v>0.2119553451876721</v>
+        <v>0.1321863511006549</v>
       </c>
       <c r="T5">
-        <v>0.2119553451876721</v>
+        <v>0.1321863511006549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>88.399283</v>
       </c>
       <c r="O6">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="P6">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="Q6">
         <v>4503.987108629374</v>
@@ -818,10 +818,10 @@
         <v>40535.88397766437</v>
       </c>
       <c r="S6">
-        <v>0.262743565159836</v>
+        <v>0.2969963078645415</v>
       </c>
       <c r="T6">
-        <v>0.262743565159836</v>
+        <v>0.2969963078645415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J7">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>36.94356000000001</v>
       </c>
       <c r="O7">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="P7">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="Q7">
         <v>1882.29261980412</v>
@@ -880,10 +880,10 @@
         <v>16940.63357823708</v>
       </c>
       <c r="S7">
-        <v>0.1098049931479231</v>
+        <v>0.1241197953989306</v>
       </c>
       <c r="T7">
-        <v>0.1098049931479231</v>
+        <v>0.1241197953989306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>77.473134</v>
       </c>
       <c r="I8">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J8">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.77057966666666</v>
+        <v>13.11484166666667</v>
       </c>
       <c r="N8">
-        <v>71.31173899999999</v>
+        <v>39.344525</v>
       </c>
       <c r="O8">
-        <v>0.3626243450559418</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="P8">
-        <v>0.3626243450559417</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="Q8">
-        <v>613.8604345911139</v>
+        <v>338.6826286101501</v>
       </c>
       <c r="R8">
-        <v>5524.743911320025</v>
+        <v>3048.14365749135</v>
       </c>
       <c r="S8">
-        <v>0.0358100223657429</v>
+        <v>0.02233298804127405</v>
       </c>
       <c r="T8">
-        <v>0.0358100223657429</v>
+        <v>0.02233298804127405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>77.473134</v>
       </c>
       <c r="I9">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J9">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>88.399283</v>
       </c>
       <c r="O9">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="P9">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="Q9">
         <v>760.952166373658</v>
@@ -1004,10 +1004,10 @@
         <v>6848.569497362922</v>
       </c>
       <c r="S9">
-        <v>0.04439073209735687</v>
+        <v>0.05017775993219387</v>
       </c>
       <c r="T9">
-        <v>0.04439073209735688</v>
+        <v>0.05017775993219387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>77.473134</v>
       </c>
       <c r="I10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>36.94356000000001</v>
       </c>
       <c r="O10">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="P10">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="Q10">
         <v>318.01481936856</v>
@@ -1066,10 +1066,10 @@
         <v>2862.13337431704</v>
       </c>
       <c r="S10">
-        <v>0.01855164000235873</v>
+        <v>0.02097013710756681</v>
       </c>
       <c r="T10">
-        <v>0.01855164000235873</v>
+        <v>0.02097013710756682</v>
       </c>
     </row>
   </sheetData>
